--- a/classfiers/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
+++ b/classfiers/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600000000000001</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9881656804733727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8153846153846155</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8453333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9059664694280078</v>
+        <v>0.9307692307692308</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
+++ b/classfiers/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9307692307692308</v>
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>
